--- a/Ejercicio complementario/Producto.xlsx
+++ b/Ejercicio complementario/Producto.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udbedu-my.sharepoint.com/personal/tb181979_alumno_udb_edu_sv/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marvin\Desktop\UDB\Datawarehouse y Minería de datos\Proyecto_ETL_TB181979\EjercicioComplementario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBB7728F-55F7-4CE5-B3DD-A57FDB380A8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58995AA7-447D-4573-B617-61970DAA7360}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="84">
   <si>
     <t>id_producto</t>
   </si>
@@ -270,13 +270,25 @@
   </si>
   <si>
     <t>April Ayala</t>
+  </si>
+  <si>
+    <t>categoria</t>
+  </si>
+  <si>
+    <t>Juguetes</t>
+  </si>
+  <si>
+    <t>Comida</t>
+  </si>
+  <si>
+    <t>Tecnologia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -323,7 +335,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -619,13 +631,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -637,7 +649,7 @@
     <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -657,19 +669,22 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -689,19 +704,22 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>26.79</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>935.08600000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -721,19 +739,22 @@
         <v>21</v>
       </c>
       <c r="G3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>21.26</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>674.56799999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -753,19 +774,22 @@
         <v>28</v>
       </c>
       <c r="G4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>30</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>71.349999999999994</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>795.54700000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -785,19 +809,22 @@
         <v>35</v>
       </c>
       <c r="G5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" t="s">
         <v>36</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>37</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>23.61</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>651.14599999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -817,19 +844,22 @@
         <v>42</v>
       </c>
       <c r="G6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" t="s">
         <v>43</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>44</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>26.64</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>641.11500000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -849,19 +879,22 @@
         <v>49</v>
       </c>
       <c r="G7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" t="s">
         <v>50</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>51</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>76.05</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>159.947</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -881,19 +914,22 @@
         <v>56</v>
       </c>
       <c r="G8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" t="s">
         <v>57</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>58</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>19.79</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>422.93799999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -913,19 +949,22 @@
         <v>63</v>
       </c>
       <c r="G9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" t="s">
         <v>64</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>65</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>10.09</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>284.34800000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -945,19 +984,22 @@
         <v>70</v>
       </c>
       <c r="G10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" t="s">
         <v>71</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>72</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>69.349999999999994</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>925.04499999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -977,15 +1019,18 @@
         <v>77</v>
       </c>
       <c r="G11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" t="s">
         <v>78</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>79</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>10.71</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>61.829000000000001</v>
       </c>
     </row>
@@ -998,6 +1043,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007136E0D72B0A9940977163153FFA115A" ma:contentTypeVersion="5" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="1d4b15e49d38d94a866ec5c4797a6ba4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f46881c-4e27-488c-8a51-e38bb783fc59" xmlns:ns4="dbbbb2fc-87e5-4918-9977-d9c9948c4104" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ede9c31840e426b74d8e6d06848e5241" ns3:_="" ns4:_="">
     <xsd:import namespace="8f46881c-4e27-488c-8a51-e38bb783fc59"/>
@@ -1168,12 +1219,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1184,13 +1229,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA2D6B79-C583-460E-9C00-4894D08FEEF0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2980CAB2-F686-484C-8D66-DB507E75702B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2980CAB2-F686-484C-8D66-DB507E75702B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA2D6B79-C583-460E-9C00-4894D08FEEF0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8f46881c-4e27-488c-8a51-e38bb783fc59"/>
+    <ds:schemaRef ds:uri="dbbbb2fc-87e5-4918-9977-d9c9948c4104"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD11A2A9-3174-4A47-9C3E-4E9D21A6E54A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD11A2A9-3174-4A47-9C3E-4E9D21A6E54A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>